--- a/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4954</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1855</v>
+        <v>1878</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10055</v>
+        <v>10054</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1469517255469453</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0550151391520607</v>
+        <v>0.05569497773162473</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2982255808329652</v>
+        <v>0.2981922636643728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>4954</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1931</v>
+        <v>1909</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10980</v>
+        <v>10519</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1118335109625831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04359061907510657</v>
+        <v>0.0430809801710819</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2478361115654615</v>
+        <v>0.237444923480413</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>28761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23660</v>
+        <v>23661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31860</v>
+        <v>31837</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8530482744530548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7017744191670349</v>
+        <v>0.7018077363356272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9449848608479394</v>
+        <v>0.9443050222683753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -841,19 +841,19 @@
         <v>39348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33322</v>
+        <v>33783</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42371</v>
+        <v>42393</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8881664890374169</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7521638884345384</v>
+        <v>0.7625550765195878</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9564093809248932</v>
+        <v>0.956919019828918</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>11375</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6311</v>
+        <v>6077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17597</v>
+        <v>17287</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3255848892627426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1806381778102062</v>
+        <v>0.1739328753072299</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5037047909673056</v>
+        <v>0.4948162836564221</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -966,19 +966,19 @@
         <v>5439</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10218</v>
+        <v>9884</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2931770958216351</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1081355188833815</v>
+        <v>0.1075447816736045</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5507228010201738</v>
+        <v>0.5327597191485908</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -987,19 +987,19 @@
         <v>16814</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9968</v>
+        <v>10567</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24899</v>
+        <v>24732</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3143442254485867</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1863476756905291</v>
+        <v>0.1975562628583162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4654964983393011</v>
+        <v>0.4623846221759679</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>23561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17339</v>
+        <v>17649</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28625</v>
+        <v>28859</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6744151107372574</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4962952090326947</v>
+        <v>0.5051837163435777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8193618221897938</v>
+        <v>0.8260671246927701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1037,19 +1037,19 @@
         <v>13114</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8335</v>
+        <v>8669</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16547</v>
+        <v>16558</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7068229041783649</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4492771989798259</v>
+        <v>0.4672402808514092</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8918644811166184</v>
+        <v>0.8924552183263955</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -1058,19 +1058,19 @@
         <v>36675</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28590</v>
+        <v>28757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43521</v>
+        <v>42922</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6856557745514132</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5345035016606989</v>
+        <v>0.5376153778240321</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.813652324309471</v>
+        <v>0.8024437371416842</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>7682</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3754</v>
+        <v>3502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11908</v>
+        <v>11839</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5144703629762399</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2514068620340056</v>
+        <v>0.2345239258514052</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7975262852198871</v>
+        <v>0.7928916855012443</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6025</v>
+        <v>6046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1395539892283654</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4490718138843836</v>
+        <v>0.4506852692799964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1204,19 +1204,19 @@
         <v>9554</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4327</v>
+        <v>5205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15126</v>
+        <v>15514</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3370365047549035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1526301844359251</v>
+        <v>0.1836029122065063</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5336068918353185</v>
+        <v>0.5472911613788698</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>7249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3023</v>
+        <v>3092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11177</v>
+        <v>11429</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.48552963702376</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2024737147801126</v>
+        <v>0.2071083144987561</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7485931379659944</v>
+        <v>0.7654760741485951</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1254,7 +1254,7 @@
         <v>11544</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7391</v>
+        <v>7370</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>13416</v>
@@ -1263,7 +1263,7 @@
         <v>0.8604460107716346</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5509281861156164</v>
+        <v>0.5493147307200034</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1275,19 +1275,19 @@
         <v>18793</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13221</v>
+        <v>12833</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24020</v>
+        <v>23142</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6629634952450965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4663931081646816</v>
+        <v>0.4527088386211305</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.847369815564075</v>
+        <v>0.8163970877934938</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>13435</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7960</v>
+        <v>8364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17183</v>
+        <v>17527</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6876593962943373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4073904698501382</v>
+        <v>0.4281041594258735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8794444801667546</v>
+        <v>0.8970863212269479</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5655</v>
+        <v>5556</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2251607418306443</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5851025098637332</v>
+        <v>0.5748593837694734</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1421,19 +1421,19 @@
         <v>15612</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9841</v>
+        <v>10121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20870</v>
+        <v>20721</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5345933666300158</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3369935783156025</v>
+        <v>0.3465655750381408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7146562164617083</v>
+        <v>0.7095412933028696</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>6103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2355</v>
+        <v>2011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11578</v>
+        <v>11174</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3123406037056627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1205555198332455</v>
+        <v>0.1029136787730521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5926095301498617</v>
+        <v>0.5718958405741265</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1471,7 +1471,7 @@
         <v>7489</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4010</v>
+        <v>4109</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>9665</v>
@@ -1480,7 +1480,7 @@
         <v>0.7748392581693557</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4148974901362668</v>
+        <v>0.4251406162305267</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1492,19 +1492,19 @@
         <v>13591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8333</v>
+        <v>8482</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19362</v>
+        <v>19082</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4654066333699842</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2853437835382917</v>
+        <v>0.2904587066971302</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6630064216843975</v>
+        <v>0.6534344249618592</v>
       </c>
     </row>
     <row r="15">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5035</v>
+        <v>5434</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2183597791947875</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5373393989210384</v>
+        <v>0.5799268338538486</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6348</v>
+        <v>6127</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.106339208809456</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.329911501086309</v>
+        <v>0.3184155877604892</v>
       </c>
     </row>
     <row r="17">
@@ -1659,7 +1659,7 @@
         <v>7325</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4336</v>
+        <v>3937</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>9371</v>
@@ -1668,7 +1668,7 @@
         <v>0.7816402208052124</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4626606010789615</v>
+        <v>0.4200731661461515</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>17196</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12894</v>
+        <v>13115</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>19242</v>
@@ -1702,7 +1702,7 @@
         <v>0.893660791190544</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.670088498913691</v>
+        <v>0.6815844122395107</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -2135,19 +2135,19 @@
         <v>39493</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29359</v>
+        <v>30048</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50898</v>
+        <v>51287</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3208790836050793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2385407911320321</v>
+        <v>0.2441374983923758</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4135438132681385</v>
+        <v>0.4167038430676636</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2156,19 +2156,19 @@
         <v>9488</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4998</v>
+        <v>4701</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16955</v>
+        <v>16412</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1011406918914414</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05327803248584367</v>
+        <v>0.05011854096064003</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1807475109307728</v>
+        <v>0.1749567541905621</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -2177,19 +2177,19 @@
         <v>48980</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36902</v>
+        <v>37070</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62450</v>
+        <v>62490</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.225838107838174</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1701465577093595</v>
+        <v>0.1709232208426756</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2879433517052797</v>
+        <v>0.2881289615526597</v>
       </c>
     </row>
     <row r="26">
@@ -2206,19 +2206,19 @@
         <v>83584</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72179</v>
+        <v>71790</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>93718</v>
+        <v>93029</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6791209163949207</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5864561867318614</v>
+        <v>0.5832961569323362</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7614592088679678</v>
+        <v>0.7558625016076239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>81</v>
@@ -2227,19 +2227,19 @@
         <v>84318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>76851</v>
+        <v>77394</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88808</v>
+        <v>89105</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8988593081085585</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8192524890692258</v>
+        <v>0.8250432458094369</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9467219675141563</v>
+        <v>0.9498814590393595</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>162</v>
@@ -2248,19 +2248,19 @@
         <v>167903</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>154433</v>
+        <v>154393</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>179981</v>
+        <v>179813</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.774161892161826</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7120566482947203</v>
+        <v>0.7118710384473403</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8298534422906405</v>
+        <v>0.8290767791573244</v>
       </c>
     </row>
     <row r="27">
@@ -2595,19 +2595,19 @@
         <v>4589</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1669</v>
+        <v>1796</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9553</v>
+        <v>10064</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07819321367020186</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02843389421820007</v>
+        <v>0.03060516603329384</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1627682298244425</v>
+        <v>0.1714733012365682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5310</v>
+        <v>5860</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03071662371764965</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1676258706112324</v>
+        <v>0.1849909142890343</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2637,19 +2637,19 @@
         <v>5562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2090</v>
+        <v>2579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10948</v>
+        <v>11875</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06155143568352611</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02312330317949389</v>
+        <v>0.02853724994250202</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1211572231924403</v>
+        <v>0.1314169437935387</v>
       </c>
     </row>
     <row r="5">
@@ -2666,19 +2666,19 @@
         <v>54100</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49136</v>
+        <v>48625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57020</v>
+        <v>56893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9218067863297982</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8372317701755574</v>
+        <v>0.8285266987634312</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9715661057817999</v>
+        <v>0.9693948339667061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -2687,7 +2687,7 @@
         <v>30702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26365</v>
+        <v>25815</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>31675</v>
@@ -2696,7 +2696,7 @@
         <v>0.9692833762823504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8323741293887673</v>
+        <v>0.8150090857109662</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2708,19 +2708,19 @@
         <v>84802</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>79416</v>
+        <v>78489</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>88274</v>
+        <v>87785</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9384485643164739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8788427768075597</v>
+        <v>0.8685830562064608</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9768766968205062</v>
+        <v>0.9714627500574979</v>
       </c>
     </row>
     <row r="6">
@@ -2812,19 +2812,19 @@
         <v>21269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13946</v>
+        <v>13902</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29256</v>
+        <v>29468</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.258367305825464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1694093047869945</v>
+        <v>0.1688739801316611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3553881744050441</v>
+        <v>0.3579701968405166</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2833,19 +2833,19 @@
         <v>4011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1108</v>
+        <v>1139</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10026</v>
+        <v>9848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1054609281460546</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02913835608795667</v>
+        <v>0.02993926541205096</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2636314927793385</v>
+        <v>0.2589509025367285</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -2854,19 +2854,19 @@
         <v>25279</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16366</v>
+        <v>17104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34734</v>
+        <v>34402</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2100499446781301</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1359852404060424</v>
+        <v>0.1421168996922834</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2886079614486636</v>
+        <v>0.285852505614052</v>
       </c>
     </row>
     <row r="8">
@@ -2883,19 +2883,19 @@
         <v>61051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53064</v>
+        <v>52852</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68374</v>
+        <v>68418</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.741632694174536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6446118255949559</v>
+        <v>0.6420298031594837</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.830590695213005</v>
+        <v>0.8311260198683391</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -2904,19 +2904,19 @@
         <v>34019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28004</v>
+        <v>28182</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36922</v>
+        <v>36891</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8945390718539453</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7363685072206612</v>
+        <v>0.7410490974632715</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9708616439120433</v>
+        <v>0.9700607345879491</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>89</v>
@@ -2925,19 +2925,19 @@
         <v>95070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>85615</v>
+        <v>85947</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103983</v>
+        <v>103245</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7899500553218699</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7113920385513364</v>
+        <v>0.714147494385948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8640147595939575</v>
+        <v>0.8578831003077168</v>
       </c>
     </row>
     <row r="9">
@@ -3029,19 +3029,19 @@
         <v>13716</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7910</v>
+        <v>7720</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21827</v>
+        <v>21647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2424784073003853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1398329168877796</v>
+        <v>0.1364842544465273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3858716345171532</v>
+        <v>0.3826783687368204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6024</v>
+        <v>6081</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06670370587982036</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.204994275862831</v>
+        <v>0.2069227111284056</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -3071,19 +3071,19 @@
         <v>15676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8965</v>
+        <v>8687</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23350</v>
+        <v>23544</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1823806669867677</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1043011358082275</v>
+        <v>0.1010676416119095</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2716522110154784</v>
+        <v>0.273919475109059</v>
       </c>
     </row>
     <row r="11">
@@ -3100,19 +3100,19 @@
         <v>42850</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34739</v>
+        <v>34919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48656</v>
+        <v>48846</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7575215926996147</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6141283654828469</v>
+        <v>0.6173216312631798</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8601670831122206</v>
+        <v>0.8635157455534728</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -3121,7 +3121,7 @@
         <v>27428</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23364</v>
+        <v>23307</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>29388</v>
@@ -3130,7 +3130,7 @@
         <v>0.9332962941201797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7950057241371689</v>
+        <v>0.7930772888715945</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3142,19 +3142,19 @@
         <v>70278</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62604</v>
+        <v>62410</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>76989</v>
+        <v>77267</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8176193330132323</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7283477889845216</v>
+        <v>0.726080524890941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8956988641917725</v>
+        <v>0.8989323583880904</v>
       </c>
     </row>
     <row r="12">
@@ -3246,19 +3246,19 @@
         <v>16317</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10539</v>
+        <v>10427</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22887</v>
+        <v>22732</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4392706982423477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.283713299495887</v>
+        <v>0.2807132139367205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6161474817903215</v>
+        <v>0.6119554142741427</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3267,19 +3267,19 @@
         <v>4327</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1112</v>
+        <v>1090</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10790</v>
+        <v>11358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1235120905136059</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03174779250602541</v>
+        <v>0.03111093238355316</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3080160841194768</v>
+        <v>0.3242306407192345</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3288,19 +3288,19 @@
         <v>20644</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13113</v>
+        <v>13007</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29197</v>
+        <v>29480</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2860152378820924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1816765851853047</v>
+        <v>0.1802042347710201</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.404509925837398</v>
+        <v>0.4084232709879579</v>
       </c>
     </row>
     <row r="14">
@@ -3317,19 +3317,19 @@
         <v>20829</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14259</v>
+        <v>14414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26607</v>
+        <v>26719</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5607293017576522</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3838525182096784</v>
+        <v>0.3880445857258574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7162867005041128</v>
+        <v>0.7192867860632796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -3338,19 +3338,19 @@
         <v>30705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24242</v>
+        <v>23674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33920</v>
+        <v>33942</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8764879094863941</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6919839158805231</v>
+        <v>0.6757693592807655</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9682522074939747</v>
+        <v>0.9688890676164469</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -3359,19 +3359,19 @@
         <v>51535</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42982</v>
+        <v>42699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>59066</v>
+        <v>59172</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7139847621179075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5954900741626017</v>
+        <v>0.5915767290120414</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8183234148146951</v>
+        <v>0.8197957652289796</v>
       </c>
     </row>
     <row r="15">
@@ -3463,19 +3463,19 @@
         <v>6305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2985</v>
+        <v>3055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9572</v>
+        <v>9650</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4879767989122239</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2310267019859713</v>
+        <v>0.2364510798763088</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7408337957847007</v>
+        <v>0.7468232886081455</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5053</v>
+        <v>5059</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02377331754490557</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.121012922258705</v>
+        <v>0.1211521044198171</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3505,19 +3505,19 @@
         <v>7298</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3157</v>
+        <v>3113</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13386</v>
+        <v>13540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1334671728251955</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05774079997661127</v>
+        <v>0.05693176167929328</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2448235661054969</v>
+        <v>0.247636146330886</v>
       </c>
     </row>
     <row r="17">
@@ -3534,19 +3534,19 @@
         <v>6616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3349</v>
+        <v>3271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9936</v>
+        <v>9866</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5120232010877761</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2591662042152993</v>
+        <v>0.2531767113918545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7689732980140286</v>
+        <v>0.7635489201236912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -3555,7 +3555,7 @@
         <v>40764</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36704</v>
+        <v>36698</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>41757</v>
@@ -3564,7 +3564,7 @@
         <v>0.9762266824550945</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8789870777412948</v>
+        <v>0.8788478955801828</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3576,19 +3576,19 @@
         <v>47380</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41292</v>
+        <v>41138</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51521</v>
+        <v>51565</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8665328271748045</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7551764338945031</v>
+        <v>0.7523638536691141</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9422592000233887</v>
+        <v>0.9430682383207067</v>
       </c>
     </row>
     <row r="18">
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5934</v>
+        <v>5879</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02182580561329071</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1094909938519218</v>
+        <v>0.1084879784253299</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5873</v>
+        <v>6658</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01551718816771655</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07704679400698032</v>
+        <v>0.08734845056460383</v>
       </c>
     </row>
     <row r="23">
@@ -3925,7 +3925,7 @@
         <v>53009</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48258</v>
+        <v>48313</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>54192</v>
@@ -3934,7 +3934,7 @@
         <v>0.9781741943867093</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8905090061480783</v>
+        <v>0.8915120215746701</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -3946,7 +3946,7 @@
         <v>75041</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>70351</v>
+        <v>69566</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>76224</v>
@@ -3955,7 +3955,7 @@
         <v>0.9844828118322835</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9229532059930197</v>
+        <v>0.9126515494353971</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -4050,19 +4050,19 @@
         <v>62196</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>48712</v>
+        <v>48879</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76925</v>
+        <v>75865</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2167323394876638</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1697446666138158</v>
+        <v>0.1703270719971355</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2680569748954998</v>
+        <v>0.264364232308139</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -4071,19 +4071,19 @@
         <v>13446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7252</v>
+        <v>6739</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24302</v>
+        <v>23207</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05264687529362158</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.028392660922409</v>
+        <v>0.02638448427848218</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.095152351366646</v>
+        <v>0.09086444810774015</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -4092,19 +4092,19 @@
         <v>75642</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60898</v>
+        <v>60005</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94648</v>
+        <v>93715</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1394646422901578</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1122796934474893</v>
+        <v>0.1106338499174912</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1745055905008146</v>
+        <v>0.1727862370158598</v>
       </c>
     </row>
     <row r="26">
@@ -4121,19 +4121,19 @@
         <v>224776</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>210047</v>
+        <v>211107</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>238260</v>
+        <v>238093</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7832676605123362</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7319430251045</v>
+        <v>0.7356357676918609</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.830255333386184</v>
+        <v>0.8296729280028644</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>228</v>
@@ -4142,19 +4142,19 @@
         <v>241959</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>231103</v>
+        <v>232198</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>248153</v>
+        <v>248666</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9473531247063784</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9048476486333538</v>
+        <v>0.9091355518922601</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9716073390775908</v>
+        <v>0.9736155157215179</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>441</v>
@@ -4163,19 +4163,19 @@
         <v>466735</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>447729</v>
+        <v>448662</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>481479</v>
+        <v>482372</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8605353577098422</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8254944094991854</v>
+        <v>0.8272137629841403</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8877203065525108</v>
+        <v>0.8893661500825089</v>
       </c>
     </row>
     <row r="27">
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5017</v>
+        <v>4967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02258375923332364</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1168879647405787</v>
+        <v>0.1157303422659715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6030</v>
+        <v>6044</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1076618308830662</v>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3301646445820483</v>
+        <v>0.3309007841557613</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -4552,19 +4552,19 @@
         <v>2936</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7925</v>
+        <v>9027</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04797970115613589</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01542387230513161</v>
+        <v>0.01515562161495384</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.129524946417404</v>
+        <v>0.1475271063022598</v>
       </c>
     </row>
     <row r="5">
@@ -4581,7 +4581,7 @@
         <v>41953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37905</v>
+        <v>37955</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>42922</v>
@@ -4590,7 +4590,7 @@
         <v>0.9774162407666763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8831120352594215</v>
+        <v>0.8842696577340282</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4602,7 +4602,7 @@
         <v>16298</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12234</v>
+        <v>12220</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>18264</v>
@@ -4611,7 +4611,7 @@
         <v>0.8923381691169339</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6698353554179518</v>
+        <v>0.6690992158442383</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4623,19 +4623,19 @@
         <v>58250</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53261</v>
+        <v>52159</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60242</v>
+        <v>60259</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9520202988438641</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.870475053582596</v>
+        <v>0.8524728936977405</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9845761276948685</v>
+        <v>0.9848443783850461</v>
       </c>
     </row>
     <row r="6">
@@ -4727,19 +4727,19 @@
         <v>12800</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7720</v>
+        <v>7068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19992</v>
+        <v>19930</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2516801435214985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1517989644651973</v>
+        <v>0.1389821356179075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3931065663112566</v>
+        <v>0.3918818274561587</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4748,19 +4748,19 @@
         <v>3953</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1028</v>
+        <v>948</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8771</v>
+        <v>8435</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1743011319810971</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0453439213204199</v>
+        <v>0.04180985588706163</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3867626351858789</v>
+        <v>0.3719245500527398</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -4769,19 +4769,19 @@
         <v>16753</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9968</v>
+        <v>9755</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23904</v>
+        <v>23850</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2278162664924277</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1355508675350559</v>
+        <v>0.1326502538016726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3250671649397018</v>
+        <v>0.3243349150367221</v>
       </c>
     </row>
     <row r="8">
@@ -4798,19 +4798,19 @@
         <v>38057</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30865</v>
+        <v>30927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43137</v>
+        <v>43789</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7483198564785015</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6068934336887435</v>
+        <v>0.6081181725438413</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8482010355348027</v>
+        <v>0.8610178643820925</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -4819,19 +4819,19 @@
         <v>18726</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13908</v>
+        <v>14244</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21651</v>
+        <v>21731</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8256988680189029</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6132373648141211</v>
+        <v>0.6280754499472604</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9546560786795801</v>
+        <v>0.9581901441129383</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>57</v>
@@ -4840,19 +4840,19 @@
         <v>56783</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>49632</v>
+        <v>49686</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>63568</v>
+        <v>63781</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7721837335075723</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6749328350602981</v>
+        <v>0.6756650849632777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8644491324649441</v>
+        <v>0.8673497461983275</v>
       </c>
     </row>
     <row r="9">
@@ -4944,19 +4944,19 @@
         <v>8278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3621</v>
+        <v>3829</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14340</v>
+        <v>15300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2308463624336566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1009810302767679</v>
+        <v>0.1067954263269263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3999145430426127</v>
+        <v>0.4266738048429097</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5834</v>
+        <v>6207</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07448588741111446</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2328945659095243</v>
+        <v>0.2477907870368184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -4986,19 +4986,19 @@
         <v>10143</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5108</v>
+        <v>4588</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17931</v>
+        <v>17727</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1665416672075186</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08387154620671895</v>
+        <v>0.07533360847123169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2944020319322415</v>
+        <v>0.2910494367578443</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         <v>27580</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21518</v>
+        <v>20558</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32237</v>
+        <v>32029</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7691536375663434</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6000854569573869</v>
+        <v>0.5733261951570906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8990189697232319</v>
+        <v>0.8932045736730739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -5036,7 +5036,7 @@
         <v>23182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19214</v>
+        <v>18841</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>25048</v>
@@ -5045,7 +5045,7 @@
         <v>0.9255141125888855</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7671054340904749</v>
+        <v>0.7522092129631798</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5057,19 +5057,19 @@
         <v>50763</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>42975</v>
+        <v>43179</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55798</v>
+        <v>56318</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8334583327924815</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7055979680677588</v>
+        <v>0.7089505632421557</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9161284537932812</v>
+        <v>0.9246663915287684</v>
       </c>
     </row>
     <row r="12">
@@ -5161,19 +5161,19 @@
         <v>6459</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2917</v>
+        <v>2727</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12188</v>
+        <v>12556</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2240272981847384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1011826659642334</v>
+        <v>0.09458504602569719</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4227328184782078</v>
+        <v>0.4354841189389235</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -5182,19 +5182,19 @@
         <v>3125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193</v>
+        <v>954</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7473</v>
+        <v>7521</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1276129681301527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007889898994552884</v>
+        <v>0.03895737987222256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3052094549830415</v>
+        <v>0.3071685384827723</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -5203,19 +5203,19 @@
         <v>9584</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5145</v>
+        <v>4613</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16887</v>
+        <v>16049</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1797507488433965</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0964947069517708</v>
+        <v>0.08652380352236828</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3167136870292614</v>
+        <v>0.3009961464769321</v>
       </c>
     </row>
     <row r="14">
@@ -5232,19 +5232,19 @@
         <v>22373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16644</v>
+        <v>16276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25915</v>
+        <v>26105</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7759727018152616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5772671815217922</v>
+        <v>0.5645158810610765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8988173340357666</v>
+        <v>0.9054149539743028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -5253,19 +5253,19 @@
         <v>21360</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17012</v>
+        <v>16964</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24292</v>
+        <v>23531</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8723870318698473</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6947905450169586</v>
+        <v>0.6928314615172279</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9921101010054426</v>
+        <v>0.9610426201277775</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -5274,19 +5274,19 @@
         <v>43734</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36431</v>
+        <v>37269</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48173</v>
+        <v>48705</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8202492511566035</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6832863129707388</v>
+        <v>0.6990038535230678</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9035052930482292</v>
+        <v>0.9134761964776317</v>
       </c>
     </row>
     <row r="15">
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4251</v>
+        <v>5309</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07407369788850501</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3039080854075483</v>
+        <v>0.3794857178281019</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5399,19 +5399,19 @@
         <v>3208</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7848</v>
+        <v>8638</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1056807276566562</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03375749004313078</v>
+        <v>0.03349871700707953</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2585311799508193</v>
+        <v>0.2845364153016579</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -5420,19 +5420,19 @@
         <v>4244</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1050</v>
+        <v>1066</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9626</v>
+        <v>9475</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09571034017381357</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02368535153676453</v>
+        <v>0.02403697310491202</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2170549063348849</v>
+        <v>0.2136482969513666</v>
       </c>
     </row>
     <row r="17">
@@ -5449,7 +5449,7 @@
         <v>12953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9738</v>
+        <v>8680</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>13989</v>
@@ -5458,7 +5458,7 @@
         <v>0.925926302111495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6960919145924518</v>
+        <v>0.6205142821718982</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5470,19 +5470,19 @@
         <v>27150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22510</v>
+        <v>21720</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29333</v>
+        <v>29341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8943192723433439</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7414688200491807</v>
+        <v>0.7154635846983424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9662425099568692</v>
+        <v>0.9665012829929205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -5491,19 +5491,19 @@
         <v>40103</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34721</v>
+        <v>34872</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43297</v>
+        <v>43281</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9042896598261865</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7829450936651151</v>
+        <v>0.7863517030486334</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9763146484632355</v>
+        <v>0.975963026895088</v>
       </c>
     </row>
     <row r="18">
@@ -5933,19 +5933,19 @@
         <v>29542</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19971</v>
+        <v>20516</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41006</v>
+        <v>41292</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1493770723618271</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1009837460447371</v>
+        <v>0.1037346767917693</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2073407684596927</v>
+        <v>0.2087899847800534</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -5954,19 +5954,19 @@
         <v>14118</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8168</v>
+        <v>7254</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22691</v>
+        <v>22559</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07374054388422088</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04266470319071783</v>
+        <v>0.0378881539605784</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1185212447961957</v>
+        <v>0.1178279159451271</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -5975,19 +5975,19 @@
         <v>43660</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32600</v>
+        <v>32712</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56805</v>
+        <v>57937</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1121724938987589</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08375766558011472</v>
+        <v>0.08404559819152103</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1459445614901437</v>
+        <v>0.1488528703542169</v>
       </c>
     </row>
     <row r="26">
@@ -6004,19 +6004,19 @@
         <v>168227</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>156763</v>
+        <v>156477</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>177798</v>
+        <v>177253</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8506229276381729</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7926592315403073</v>
+        <v>0.7912100152199467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.899016253955263</v>
+        <v>0.8962653232082307</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>158</v>
@@ -6025,19 +6025,19 @@
         <v>177335</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>168762</v>
+        <v>168894</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>183285</v>
+        <v>184199</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9262594561157791</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8814787552038044</v>
+        <v>0.8821720840548731</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9573352968092821</v>
+        <v>0.962111846039422</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>321</v>
@@ -6046,19 +6046,19 @@
         <v>345563</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>332418</v>
+        <v>331286</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>356623</v>
+        <v>356511</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8878275061012412</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8540554385098564</v>
+        <v>0.8511471296457833</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9162423344198852</v>
+        <v>0.915954401808479</v>
       </c>
     </row>
     <row r="27">
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14683</v>
+        <v>15056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2758950488913671</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7094334487402778</v>
+        <v>0.727443729453493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10659</v>
+        <v>10944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1579996304375465</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4717909117940141</v>
+        <v>0.4844324781637504</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6435,19 +6435,19 @@
         <v>9280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3163</v>
+        <v>2359</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21655</v>
+        <v>20456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2143673676208839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07306896031713002</v>
+        <v>0.05449276268552859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5002381068028552</v>
+        <v>0.4725385004985151</v>
       </c>
     </row>
     <row r="5">
@@ -6464,16 +6464,16 @@
         <v>14987</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6007</v>
+        <v>5663</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>20697</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7241049511086328</v>
+        <v>0.7241049511086329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2902477403154825</v>
+        <v>0.2735961755457956</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6485,16 +6485,16 @@
         <v>19022</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11933</v>
+        <v>11648</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>22592</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8420003695624537</v>
+        <v>0.8420003695624534</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5282090882059858</v>
+        <v>0.5155675218362485</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6506,19 +6506,19 @@
         <v>34009</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21634</v>
+        <v>22833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40126</v>
+        <v>40930</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7856326323791163</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4997618931971447</v>
+        <v>0.5274614995014848</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9269310396828699</v>
+        <v>0.9455072373144714</v>
       </c>
     </row>
     <row r="6">
@@ -6610,19 +6610,19 @@
         <v>11190</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5428</v>
+        <v>4851</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18925</v>
+        <v>18946</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3370945176147885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1635106589626342</v>
+        <v>0.1461235495431903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5701076144397211</v>
+        <v>0.5707454344404835</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -6634,16 +6634,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5122</v>
+        <v>4972</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06971003194567514</v>
+        <v>0.06971003194567515</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3339819944557406</v>
+        <v>0.324172356728142</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -6652,19 +6652,19 @@
         <v>12259</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6125</v>
+        <v>5839</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20349</v>
+        <v>21164</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.252600048297452</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1262095659397749</v>
+        <v>0.1203015592531416</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4192885087385608</v>
+        <v>0.4360773630180202</v>
       </c>
     </row>
     <row r="8">
@@ -6681,19 +6681,19 @@
         <v>22006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14271</v>
+        <v>14250</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27768</v>
+        <v>28345</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6629054823852115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4298923855602787</v>
+        <v>0.4292545655595157</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8364893410373658</v>
+        <v>0.8538764504568096</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -6702,16 +6702,16 @@
         <v>14268</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10215</v>
+        <v>10365</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>15337</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9302899680543248</v>
+        <v>0.930289968054325</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6660180055442592</v>
+        <v>0.6758276432718611</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6723,19 +6723,19 @@
         <v>36274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28184</v>
+        <v>27369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>42408</v>
+        <v>42694</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7473999517025481</v>
+        <v>0.7473999517025479</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.580711491261439</v>
+        <v>0.5639226369819805</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8737904340602252</v>
+        <v>0.8796984407468588</v>
       </c>
     </row>
     <row r="9">
@@ -6827,19 +6827,19 @@
         <v>9016</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4348</v>
+        <v>4267</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15355</v>
+        <v>15383</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2338942134443695</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1128043242361025</v>
+        <v>0.1106977516949115</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3983213953822327</v>
+        <v>0.3990594773717967</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -6848,19 +6848,19 @@
         <v>2803</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6421</v>
+        <v>5940</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09198344017369921</v>
+        <v>0.09198344017369922</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02397336601203748</v>
+        <v>0.02501027333609796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2107489405099448</v>
+        <v>0.1949740848960401</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -6869,19 +6869,19 @@
         <v>11819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6644</v>
+        <v>6766</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18715</v>
+        <v>18554</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1712470762734119</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09627016653605873</v>
+        <v>0.09802837473254829</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2711644751429769</v>
+        <v>0.2688307885641479</v>
       </c>
     </row>
     <row r="11">
@@ -6898,19 +6898,19 @@
         <v>29533</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23194</v>
+        <v>23166</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34201</v>
+        <v>34282</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7661057865556306</v>
+        <v>0.7661057865556307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6016786046177673</v>
+        <v>0.6009405226282033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8871956757638976</v>
+        <v>0.8893022483050886</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -6919,19 +6919,19 @@
         <v>27665</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24047</v>
+        <v>24528</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29738</v>
+        <v>29706</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9080165598263008</v>
+        <v>0.9080165598263007</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7892510594900553</v>
+        <v>0.8050259151039599</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9760266339879624</v>
+        <v>0.974989726663902</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>65</v>
@@ -6940,19 +6940,19 @@
         <v>57197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>50301</v>
+        <v>50462</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>62372</v>
+        <v>62250</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.828752923726588</v>
+        <v>0.8287529237265882</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7288355248570233</v>
+        <v>0.7311692114358518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9037298334639413</v>
+        <v>0.9019716252674517</v>
       </c>
     </row>
     <row r="12">
@@ -7044,19 +7044,19 @@
         <v>13527</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7634</v>
+        <v>7311</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21414</v>
+        <v>21586</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2467304814400894</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.139243436819195</v>
+        <v>0.133360074288685</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3906112483881949</v>
+        <v>0.3937451160650281</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -7065,19 +7065,19 @@
         <v>2506</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5515</v>
+        <v>5784</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0768332141370961</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02208784299803465</v>
+        <v>0.02304877975321155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1690731725344562</v>
+        <v>0.177341210759114</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -7086,19 +7086,19 @@
         <v>16033</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9453</v>
+        <v>9587</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24453</v>
+        <v>24631</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1833555823432624</v>
+        <v>0.1833555823432623</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1081060470245827</v>
+        <v>0.1096461886638773</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2796588497819876</v>
+        <v>0.2816867646754044</v>
       </c>
     </row>
     <row r="14">
@@ -7115,19 +7115,19 @@
         <v>41296</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33409</v>
+        <v>33237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47189</v>
+        <v>47512</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7532695185599105</v>
+        <v>0.7532695185599106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6093887516118048</v>
+        <v>0.6062548839349718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.860756563180805</v>
+        <v>0.8666399257113145</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -7136,19 +7136,19 @@
         <v>30111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27102</v>
+        <v>26833</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31897</v>
+        <v>31865</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.923166785862904</v>
+        <v>0.9231667858629039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8309268274655437</v>
+        <v>0.8226587892408858</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9779121570019652</v>
+        <v>0.9769512202467884</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>86</v>
@@ -7157,19 +7157,19 @@
         <v>71407</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62987</v>
+        <v>62809</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>77987</v>
+        <v>77853</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8166444176567378</v>
+        <v>0.8166444176567375</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7203411502180121</v>
+        <v>0.7183132353245969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8918939529754172</v>
+        <v>0.8903538113361229</v>
       </c>
     </row>
     <row r="15">
@@ -7261,19 +7261,19 @@
         <v>9141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4856</v>
+        <v>4824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14664</v>
+        <v>15512</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2902215692892581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1541823770327652</v>
+        <v>0.1531645208353411</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4655846258099262</v>
+        <v>0.4924981956208993</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -7282,19 +7282,19 @@
         <v>6144</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3034</v>
+        <v>3096</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10487</v>
+        <v>10268</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.160395933535391</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07919546190029156</v>
+        <v>0.08082280100997931</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2737925540173722</v>
+        <v>0.2680565256445812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -7303,19 +7303,19 @@
         <v>15285</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9233</v>
+        <v>10181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22021</v>
+        <v>22120</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2189776936371457</v>
+        <v>0.2189776936371456</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1322766146760742</v>
+        <v>0.1458657899697425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3154822581414366</v>
+        <v>0.3169015947834149</v>
       </c>
     </row>
     <row r="17">
@@ -7332,19 +7332,19 @@
         <v>22355</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16832</v>
+        <v>15984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26640</v>
+        <v>26672</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7097784307107421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5344153741900737</v>
+        <v>0.5075018043791009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8458176229672347</v>
+        <v>0.846835479164659</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -7353,19 +7353,19 @@
         <v>32160</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27817</v>
+        <v>28036</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35270</v>
+        <v>35208</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8396040664646094</v>
+        <v>0.8396040664646088</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7262074459826281</v>
+        <v>0.7319434743554188</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9208045380997084</v>
+        <v>0.9191771989900206</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -7374,19 +7374,19 @@
         <v>54515</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47779</v>
+        <v>47680</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>60567</v>
+        <v>59619</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7810223063628543</v>
+        <v>0.7810223063628542</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6845177418585632</v>
+        <v>0.683098405216585</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8677233853239259</v>
+        <v>0.8541342100302574</v>
       </c>
     </row>
     <row r="18">
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4787</v>
+        <v>3896</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05084030217326963</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2639590797128287</v>
+        <v>0.2148193090688315</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>2664</v>
+        <v>2723</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01321830444428107</v>
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07357582247947848</v>
+        <v>0.07521044623479899</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -7523,16 +7523,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5804</v>
+        <v>4693</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02577388068698804</v>
+        <v>0.02577388068698805</v>
       </c>
       <c r="V19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1067936442638461</v>
+        <v>0.08636161681059602</v>
       </c>
     </row>
     <row r="20">
@@ -7549,7 +7549,7 @@
         <v>17215</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13350</v>
+        <v>14241</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>18137</v>
@@ -7558,7 +7558,7 @@
         <v>0.9491596978267304</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7360409202871724</v>
+        <v>0.7851806909311688</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7570,16 +7570,16 @@
         <v>35730</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33545</v>
+        <v>33486</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>36209</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9867816955557189</v>
+        <v>0.9867816955557187</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9264241775205203</v>
+        <v>0.9247895537651993</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -7591,7 +7591,7 @@
         <v>52945</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>48542</v>
+        <v>49653</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>54346</v>
@@ -7600,7 +7600,7 @@
         <v>0.974226119313012</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8932063557361527</v>
+        <v>0.9136383831894037</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -7864,19 +7864,19 @@
         <v>49506</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36630</v>
+        <v>35410</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>65858</v>
+        <v>63881</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2251200706489317</v>
+        <v>0.2251200706489316</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1665661108627925</v>
+        <v>0.1610185385228425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2994762012737923</v>
+        <v>0.2904873451088611</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -7885,19 +7885,19 @@
         <v>16570</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10825</v>
+        <v>10055</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25386</v>
+        <v>26037</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07136526120448072</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0466227796313925</v>
+        <v>0.04330780801506204</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1093363204005175</v>
+        <v>0.1121418613028523</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -7906,19 +7906,19 @@
         <v>66076</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50893</v>
+        <v>51632</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85760</v>
+        <v>85605</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1461563306711572</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1125718594342362</v>
+        <v>0.1142072073596716</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.189697352301953</v>
+        <v>0.1893544477406301</v>
       </c>
     </row>
     <row r="26">
@@ -7935,19 +7935,19 @@
         <v>170405</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>154053</v>
+        <v>156030</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>183281</v>
+        <v>184501</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7748799293510683</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7005237987262077</v>
+        <v>0.709512654891139</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8334338891372075</v>
+        <v>0.8389814614771575</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>337</v>
@@ -7956,19 +7956,19 @@
         <v>215610</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>206794</v>
+        <v>206143</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>221355</v>
+        <v>222125</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9286347387955193</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8906636795994827</v>
+        <v>0.8878581386971485</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9533772203686075</v>
+        <v>0.9566921919849378</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>507</v>
@@ -7977,19 +7977,19 @@
         <v>386015</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>366331</v>
+        <v>366486</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>401198</v>
+        <v>400459</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8538436693288426</v>
+        <v>0.8538436693288427</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8103026476980465</v>
+        <v>0.8106455522593707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8874281405657634</v>
+        <v>0.8857927926403285</v>
       </c>
     </row>
     <row r="27">
